--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2039859.999724449</v>
+        <v>-2042474.278340901</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>126.9723878492692</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>32.50077723005297</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851265</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>91.1103483761872</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674309</v>
+        <v>14.08691327674308</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.9230939674644</v>
+        <v>109.6028946140712</v>
       </c>
       <c r="I4" t="n">
         <v>100.3033462869334</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>94.83943180792919</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>192.0586035981866</v>
       </c>
       <c r="T4" t="n">
         <v>220.1102960603998</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>101.9623630345102</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>213.9184378604411</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>22.05778319390777</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1108,19 +1108,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>155.0910466798649</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>84.60478350964965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>107.0120291964086</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>96.52086089170427</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>33.82253192243282</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>181.0548496930889</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722615</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>65.06198119183976</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>18.50276072357029</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>166.6594061764984</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>40.5342109554691</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0.8253826161912627</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2135,10 +2135,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>27.02919805176164</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>23.10998325717265</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856549</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428149</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,7 +2716,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,13 +2953,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308907</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>556.5871098736798</v>
+        <v>556.5871098736789</v>
       </c>
       <c r="C2" t="n">
-        <v>556.5871098736798</v>
+        <v>187.6245929332672</v>
       </c>
       <c r="D2" t="n">
-        <v>556.5871098736798</v>
+        <v>59.36965571178314</v>
       </c>
       <c r="E2" t="n">
-        <v>556.5871098736798</v>
+        <v>59.36965571178314</v>
       </c>
       <c r="F2" t="n">
-        <v>145.6012050840722</v>
+        <v>59.36965571178314</v>
       </c>
       <c r="G2" t="n">
-        <v>112.7721371749273</v>
+        <v>59.36965571178314</v>
       </c>
       <c r="H2" t="n">
-        <v>112.7721371749273</v>
+        <v>59.36965571178314</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178315</v>
+        <v>59.36965571178314</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734989</v>
+        <v>223.6389510734995</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447435</v>
+        <v>520.5745606447439</v>
       </c>
       <c r="L2" t="n">
-        <v>925.851203018502</v>
+        <v>925.8512030185016</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552357</v>
+        <v>1408.468993552356</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.509852877248</v>
+        <v>1903.509852877247</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384225</v>
+        <v>2357.627637384224</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.70565921571</v>
+        <v>2710.705659215709</v>
       </c>
       <c r="Q2" t="n">
         <v>2927.679802719471</v>
@@ -4355,25 +4355,25 @@
         <v>2968.482785589157</v>
       </c>
       <c r="S2" t="n">
-        <v>2851.450538338332</v>
+        <v>2851.450538338331</v>
       </c>
       <c r="T2" t="n">
-        <v>2644.177727152599</v>
+        <v>2644.177727152598</v>
       </c>
       <c r="U2" t="n">
-        <v>2390.623582788378</v>
+        <v>2390.623582788377</v>
       </c>
       <c r="V2" t="n">
-        <v>2059.560695444807</v>
+        <v>2059.560695444806</v>
       </c>
       <c r="W2" t="n">
-        <v>1706.792040174693</v>
+        <v>1706.792040174692</v>
       </c>
       <c r="X2" t="n">
-        <v>1333.326281913613</v>
+        <v>1333.326281913612</v>
       </c>
       <c r="Y2" t="n">
-        <v>943.1869499378015</v>
+        <v>943.1869499378006</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4401,28 @@
         <v>165.6295159672683</v>
       </c>
       <c r="H3" t="n">
-        <v>73.59886104182667</v>
+        <v>73.59886104182665</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178315</v>
+        <v>59.36965571178314</v>
       </c>
       <c r="J3" t="n">
-        <v>263.2196007018999</v>
+        <v>138.3894757148951</v>
       </c>
       <c r="K3" t="n">
-        <v>476.4318839038949</v>
+        <v>351.6017589168901</v>
       </c>
       <c r="L3" t="n">
-        <v>809.4446518541373</v>
+        <v>684.6145268671326</v>
       </c>
       <c r="M3" t="n">
-        <v>1217.411713026818</v>
+        <v>1092.581588039814</v>
       </c>
       <c r="N3" t="n">
-        <v>1765.502785324653</v>
+        <v>1525.754968293605</v>
       </c>
       <c r="O3" t="n">
-        <v>2139.552005769183</v>
+        <v>1899.804188738135</v>
       </c>
       <c r="P3" t="n">
         <v>2420.426415694429</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>774.0260015644794</v>
+        <v>587.2222920982106</v>
       </c>
       <c r="C4" t="n">
-        <v>605.0898186365725</v>
+        <v>418.2861091703037</v>
       </c>
       <c r="D4" t="n">
-        <v>454.9731792242368</v>
+        <v>418.2861091703037</v>
       </c>
       <c r="E4" t="n">
-        <v>454.9731792242368</v>
+        <v>418.2861091703037</v>
       </c>
       <c r="F4" t="n">
-        <v>308.0832317263264</v>
+        <v>271.3961616723933</v>
       </c>
       <c r="G4" t="n">
-        <v>308.0832317263264</v>
+        <v>271.3961616723934</v>
       </c>
       <c r="H4" t="n">
         <v>160.6861671127259</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178315</v>
+        <v>59.36965571178314</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538945986</v>
+        <v>95.29667538945989</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778209</v>
+        <v>284.172641777821</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386278</v>
+        <v>581.3952856386279</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945955</v>
+        <v>905.1640129945957</v>
       </c>
       <c r="N4" t="n">
         <v>1226.668860094579</v>
@@ -4507,31 +4507,31 @@
         <v>1724.491028290281</v>
       </c>
       <c r="Q4" t="n">
-        <v>1791.210133852897</v>
+        <v>1791.210133852896</v>
       </c>
       <c r="R4" t="n">
-        <v>1791.210133852897</v>
+        <v>1695.412727986301</v>
       </c>
       <c r="S4" t="n">
-        <v>1791.210133852897</v>
+        <v>1501.414138493183</v>
       </c>
       <c r="T4" t="n">
-        <v>1568.876501468655</v>
+        <v>1279.080506108941</v>
       </c>
       <c r="U4" t="n">
-        <v>1568.876501468655</v>
+        <v>1279.080506108941</v>
       </c>
       <c r="V4" t="n">
-        <v>1568.876501468655</v>
+        <v>1279.080506108941</v>
       </c>
       <c r="W4" t="n">
-        <v>1279.459331431694</v>
+        <v>989.6633360719804</v>
       </c>
       <c r="X4" t="n">
-        <v>1176.467045538249</v>
+        <v>989.6633360719804</v>
       </c>
       <c r="Y4" t="n">
-        <v>955.6744663947192</v>
+        <v>768.8707569284503</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1771.418012197378</v>
+        <v>1215.758282883553</v>
       </c>
       <c r="C5" t="n">
-        <v>1402.455495256967</v>
+        <v>846.7957659431409</v>
       </c>
       <c r="D5" t="n">
-        <v>1044.189796650216</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
         <v>66.5121164321834</v>
@@ -4577,10 +4577,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296685</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3303.325232524415</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3049.794755798251</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2718.73186845468</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2365.963213184566</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.0178522615</v>
+        <v>1992.497454923486</v>
       </c>
       <c r="Y5" t="n">
-        <v>2158.0178522615</v>
+        <v>1602.358122947674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4644,52 +4644,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>646.6939999491682</v>
+        <v>460.8443805240842</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7578170212613</v>
+        <v>460.8443805240842</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
         <v>163.837793613838</v>
@@ -4756,19 +4756,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>978.2511014590621</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.594421205412</v>
+        <v>688.8339314221015</v>
       </c>
       <c r="X7" t="n">
-        <v>1049.135043922938</v>
+        <v>460.8443805240842</v>
       </c>
       <c r="Y7" t="n">
-        <v>828.3424647794079</v>
+        <v>460.8443805240842</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.864437266279</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.901920325867</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3022.132254910863</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2691.069367567292</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2691.069367567292</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2317.603609306213</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1927.464277330401</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>775.9977502341333</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4990,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1654.580404287345</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1365.477537412989</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>1365.477537412989</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W10" t="n">
-        <v>1076.060367376028</v>
+        <v>1258.944053934704</v>
       </c>
       <c r="X10" t="n">
-        <v>848.0708164780106</v>
+        <v>1030.954503036686</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.0708164780106</v>
+        <v>810.1619238931563</v>
       </c>
     </row>
     <row r="11">
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>915.1035305473702</v>
+        <v>784.5811134804962</v>
       </c>
       <c r="C13" t="n">
-        <v>746.1673476194633</v>
+        <v>615.6449305525894</v>
       </c>
       <c r="D13" t="n">
-        <v>596.0507082071275</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>448.1376146247344</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>301.2476671268241</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>301.2476671268241</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>159.5358359690221</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,7 +5200,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473702</v>
+        <v>966.229578310736</v>
       </c>
     </row>
     <row r="14">
@@ -5270,43 +5270,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111694</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075786</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,7 +5452,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>816.5764010855557</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
@@ -5522,10 +5522,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400711</v>
+        <v>580.8993044876692</v>
       </c>
       <c r="C19" t="n">
-        <v>472.9099533103043</v>
+        <v>411.9631215597623</v>
       </c>
       <c r="D19" t="n">
-        <v>322.7933138979686</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000582</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>94.6503828623065</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>94.6503828623065</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.340348461439</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703108</v>
+        <v>762.5477693179089</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,16 +5771,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400716</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="D22" t="n">
-        <v>317.61519755786</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="E22" t="n">
-        <v>317.61519755786</v>
+        <v>264.0500279773687</v>
       </c>
       <c r="F22" t="n">
-        <v>317.61519755786</v>
+        <v>117.1600804794584</v>
       </c>
       <c r="G22" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5914,13 +5914,13 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
         <v>2035.089393279802</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138413</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703113</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,25 +6069,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2313.467666357059</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270441</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="26">
@@ -6315,16 +6315,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319315</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580104</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345466</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438401</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6388,7 +6388,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6403,7 +6403,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931273</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,19 +6540,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319313</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656807</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150015</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942647</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380725</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,13 +6643,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838285</v>
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6886,7 +6886,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
@@ -7026,16 +7026,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,37 +7108,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7166,55 +7166,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,13 +7345,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,22 +7360,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7409,10 +7409,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,25 +7488,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>175.8744207939072</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,25 +7591,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,13 +8067,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>116.0784768121649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>242.1695121525734</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>227.7106537714138</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>378.7138354443612</v>
+        <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
         <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.86845664851264</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22720,7 +22720,7 @@
         <v>166.1571872936354</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>36.32019935339328</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.8394318079292</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981866</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>123.7472923545269</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>16.20385512672577</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>268.0202376130207</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>119.8635921600926</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>126.7126101431587</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>80.44045370237427</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>121.5862749664507</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>142.4141550350964</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219424</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>8.775202786637237e-13</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1085415.538241822</v>
+        <v>1085415.538241821</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1341550.992928708</v>
+        <v>1341550.992928707</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1341550.992928707</v>
+        <v>1341550.992928708</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1341550.992928708</v>
+        <v>1341550.992928707</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1341550.992928708</v>
+        <v>1341550.992928707</v>
       </c>
     </row>
     <row r="10">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64921.82232287326</v>
+        <v>64921.82232287325</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="G2" t="n">
         <v>80714.6599690006</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="L2" t="n">
         <v>82104.1769864284</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="N2" t="n">
         <v>82104.17698642834</v>
@@ -26353,7 +26353,7 @@
         <v>82104.17698642837</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1228620.061871473</v>
+        <v>1228620.061871474</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973084</v>
+        <v>95186.49343973077</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.126388037344441e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.1454818042</v>
+        <v>213599.1454818041</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359967</v>
+        <v>22978.0103835997</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14779.83765767047</v>
+        <v>14779.83765767046</v>
       </c>
       <c r="C4" t="n">
         <v>89744.12305813254</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="J4" t="n">
-        <v>18547.94754987466</v>
+        <v>18547.94754987467</v>
       </c>
       <c r="K4" t="n">
-        <v>18547.9475498747</v>
+        <v>18547.94754987467</v>
       </c>
       <c r="L4" t="n">
+        <v>18547.94754987467</v>
+      </c>
+      <c r="M4" t="n">
         <v>18547.94754987468</v>
       </c>
-      <c r="M4" t="n">
-        <v>18547.94754987466</v>
-      </c>
       <c r="N4" t="n">
-        <v>18547.94754987473</v>
+        <v>18547.94754987464</v>
       </c>
       <c r="O4" t="n">
         <v>18547.94754987468</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1279395.494527245</v>
+        <v>-1279825.053393835</v>
       </c>
       <c r="C6" t="n">
         <v>-210760.3800728283</v>
       </c>
       <c r="D6" t="n">
-        <v>-115573.8866330975</v>
+        <v>-115573.8866330974</v>
       </c>
       <c r="E6" t="n">
-        <v>-356377.4199490429</v>
+        <v>-356412.1578744786</v>
       </c>
       <c r="F6" t="n">
-        <v>-30964.95814168773</v>
+        <v>-30999.69606712343</v>
       </c>
       <c r="G6" t="n">
-        <v>-30964.95814168776</v>
+        <v>-30999.69606712344</v>
       </c>
       <c r="H6" t="n">
-        <v>-30964.95814168781</v>
+        <v>-30999.69606712343</v>
       </c>
       <c r="I6" t="n">
-        <v>-30964.9581416877</v>
+        <v>-30999.6960671234</v>
       </c>
       <c r="J6" t="n">
         <v>-253207.0318991658</v>
       </c>
       <c r="K6" t="n">
-        <v>-62585.89680096141</v>
+        <v>-62585.8968009614</v>
       </c>
       <c r="L6" t="n">
         <v>-39607.88641736167</v>
@@ -26555,13 +26555,13 @@
         <v>-124662.9143528735</v>
       </c>
       <c r="N6" t="n">
-        <v>-39607.88641736177</v>
+        <v>-39607.88641736172</v>
       </c>
       <c r="O6" t="n">
-        <v>-59035.6044109935</v>
+        <v>-59035.60441099351</v>
       </c>
       <c r="P6" t="n">
-        <v>-39607.88641736169</v>
+        <v>-39607.8864173617</v>
       </c>
     </row>
   </sheetData>
@@ -26701,28 +26701,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972893</v>
+        <v>742.1206963972892</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396972</v>
+        <v>72.85564646396961</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972893</v>
+        <v>742.1206963972892</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500323</v>
+        <v>89.28075900500335</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>742.1206963972893</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500323</v>
+        <v>89.28075900500335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972893</v>
+        <v>742.1206963972892</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500323</v>
+        <v>89.28075900500335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>168.0119322118206</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>181.8601869457124</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>97.04659664396314</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>141.1048718793875</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>275.721812467072</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>154.4743110671977</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>146.0094482595045</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>38.4940995830803</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28855,10 +28855,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="44">
@@ -31039,10 +31039,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720916</v>
+        <v>4.088124840720917</v>
       </c>
       <c r="H2" t="n">
-        <v>41.86750852503309</v>
+        <v>41.8675085250331</v>
       </c>
       <c r="I2" t="n">
         <v>157.6074329218933</v>
@@ -31060,16 +31060,16 @@
         <v>717.8389509382371</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419354</v>
+        <v>729.4543356419355</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570167</v>
+        <v>688.8030442570168</v>
       </c>
       <c r="P2" t="n">
         <v>587.8774622517191</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934011</v>
+        <v>441.4714913934012</v>
       </c>
       <c r="R2" t="n">
         <v>256.8006720259355</v>
@@ -31081,7 +31081,7 @@
         <v>17.89576649025582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576732</v>
+        <v>0.3270499872576733</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863084</v>
+        <v>2.187339625863085</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030926</v>
+        <v>21.12509586030927</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467199</v>
+        <v>75.309719574672</v>
       </c>
       <c r="J3" t="n">
         <v>206.6556266698101</v>
@@ -31136,16 +31136,16 @@
         <v>474.9309130629474</v>
       </c>
       <c r="M3" t="n">
-        <v>554.221974500484</v>
+        <v>554.2219745004841</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265571</v>
+        <v>568.8905810265572</v>
       </c>
       <c r="O3" t="n">
         <v>520.4237398429593</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913463</v>
+        <v>417.6859325913464</v>
       </c>
       <c r="Q3" t="n">
         <v>279.2119845224527</v>
@@ -31209,16 +31209,16 @@
         <v>129.6490989830129</v>
       </c>
       <c r="K4" t="n">
-        <v>213.0532962585707</v>
+        <v>213.0532962585708</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283777</v>
+        <v>272.6348675283778</v>
       </c>
       <c r="M4" t="n">
-        <v>287.4552415795411</v>
+        <v>287.4552415795412</v>
       </c>
       <c r="N4" t="n">
-        <v>280.620198428836</v>
+        <v>280.6201984288361</v>
       </c>
       <c r="O4" t="n">
         <v>259.1981729443083</v>
@@ -31230,13 +31230,13 @@
         <v>153.5550791735286</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924028</v>
+        <v>82.4539595692403</v>
       </c>
       <c r="S4" t="n">
         <v>31.95799443878561</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881709</v>
+        <v>7.83529336788171</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,16 +31847,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>163.1438255932938</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32075,28 +32075,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>328.9038320421819</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>697.06562727909</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>344.9857809048118</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33415,13 +33415,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33500,7 +33500,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159439</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>452.3405299254388</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34208,10 +34208,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>207.939011051685</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34445,31 +34445,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>422.1299181110993</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34708,19 +34708,19 @@
         <v>487.4927177109644</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453444</v>
+        <v>500.0412720453446</v>
       </c>
       <c r="O2" t="n">
-        <v>458.70483283533</v>
+        <v>458.7048328353301</v>
       </c>
       <c r="P2" t="n">
         <v>356.6444664964495</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189516</v>
+        <v>219.1658015189517</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180333</v>
+        <v>41.21513421180339</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>205.9090353435522</v>
+        <v>79.81800000314342</v>
       </c>
       <c r="K3" t="n">
         <v>215.3659426282778</v>
@@ -34784,16 +34784,16 @@
         <v>336.3765332830732</v>
       </c>
       <c r="M3" t="n">
-        <v>412.0879405784656</v>
+        <v>412.0879405784657</v>
       </c>
       <c r="N3" t="n">
-        <v>553.6273457553888</v>
+        <v>437.548868943224</v>
       </c>
       <c r="O3" t="n">
         <v>377.8274953985149</v>
       </c>
       <c r="P3" t="n">
-        <v>283.7115251770161</v>
+        <v>525.8810373295895</v>
       </c>
       <c r="Q3" t="n">
         <v>139.2302104364312</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634012</v>
+        <v>36.28991886634014</v>
       </c>
       <c r="K4" t="n">
         <v>190.7838044326879</v>
@@ -34863,19 +34863,19 @@
         <v>300.2248927886939</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413817</v>
+        <v>327.0391185413818</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080646</v>
+        <v>324.7523708080647</v>
       </c>
       <c r="O4" t="n">
         <v>283.783300858348</v>
       </c>
       <c r="P4" t="n">
-        <v>219.0673740868046</v>
+        <v>219.0673740868047</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183423</v>
+        <v>67.39303592183425</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,16 +35495,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.9220579561604</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>554.9315933570717</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629534</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36437,7 +36437,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>205.0040068187903</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,13 +37063,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37148,7 +37148,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193529</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>310.2064960034205</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37856,10 +37856,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>81.10138438501833</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38093,31 +38093,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>283.5755383312251</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
